--- a/LinkedInProfiles.xlsx
+++ b/LinkedInProfiles.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="LinkedIn Profiles" r:id="rId3" sheetId="1"/>
+    <sheet name="LinkedInProfiles" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Sno</t>
   </si>
@@ -20,19 +20,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Company_name</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Bob Adams</t>
-  </si>
-  <si>
-    <t>Jefferies &amp; Company, Inc.</t>
-  </si>
-  <si>
-    <t>Recheck</t>
+    <t>Username</t>
   </si>
 </sst>
 </file>
@@ -77,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -93,23 +81,6 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
